--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H2">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I2">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J2">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.18969889110557</v>
+        <v>1.356035</v>
       </c>
       <c r="N2">
-        <v>1.18969889110557</v>
+        <v>4.068105</v>
       </c>
       <c r="O2">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="P2">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="Q2">
-        <v>1.354937404638229</v>
+        <v>1.664677154221667</v>
       </c>
       <c r="R2">
-        <v>1.354937404638229</v>
+        <v>14.982094387995</v>
       </c>
       <c r="S2">
-        <v>0.0003041633421326584</v>
+        <v>0.0002643525635730579</v>
       </c>
       <c r="T2">
-        <v>0.0003041633421326584</v>
+        <v>0.0002643525635730579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H3">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I3">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J3">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.1868614501214</v>
+        <v>2.189198666666667</v>
       </c>
       <c r="N3">
-        <v>2.1868614501214</v>
+        <v>6.567596</v>
       </c>
       <c r="O3">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="P3">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="Q3">
-        <v>2.490596906228393</v>
+        <v>2.687474148124889</v>
       </c>
       <c r="R3">
-        <v>2.490596906228393</v>
+        <v>24.187267333124</v>
       </c>
       <c r="S3">
-        <v>0.000559102048781327</v>
+        <v>0.0004267738514891235</v>
       </c>
       <c r="T3">
-        <v>0.000559102048781327</v>
+        <v>0.0004267738514891234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H4">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I4">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J4">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.529331852907259</v>
+        <v>1.022878333333333</v>
       </c>
       <c r="N4">
-        <v>0.529331852907259</v>
+        <v>3.068635</v>
       </c>
       <c r="O4">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="P4">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="Q4">
-        <v>0.6028513032436399</v>
+        <v>1.255691920229445</v>
       </c>
       <c r="R4">
-        <v>0.6028513032436399</v>
+        <v>11.301227282065</v>
       </c>
       <c r="S4">
-        <v>0.0001353311721825062</v>
+        <v>0.0001994052584483465</v>
       </c>
       <c r="T4">
-        <v>0.0001353311721825062</v>
+        <v>0.0001994052584483465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H5">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I5">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J5">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.405604611957196</v>
+        <v>0.492087</v>
       </c>
       <c r="N5">
-        <v>0.405604611957196</v>
+        <v>1.476261</v>
       </c>
       <c r="O5">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="P5">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="Q5">
-        <v>0.4619394574066322</v>
+        <v>0.604089117751</v>
       </c>
       <c r="R5">
-        <v>0.4619394574066322</v>
+        <v>5.436802059759001</v>
       </c>
       <c r="S5">
-        <v>0.0001036985537093968</v>
+        <v>9.593001651946694E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001036985537093968</v>
+        <v>9.593001651946693E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H6">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I6">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J6">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.564572820492847</v>
+        <v>0.624846</v>
       </c>
       <c r="N6">
-        <v>0.564572820492847</v>
+        <v>1.874538</v>
       </c>
       <c r="O6">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="P6">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="Q6">
-        <v>0.6429869253866375</v>
+        <v>0.767064906958</v>
       </c>
       <c r="R6">
-        <v>0.6429869253866375</v>
+        <v>6.903584162622001</v>
       </c>
       <c r="S6">
-        <v>0.0001443410238020703</v>
+        <v>0.0001218107511519769</v>
       </c>
       <c r="T6">
-        <v>0.0001443410238020703</v>
+        <v>0.0001218107511519769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H7">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I7">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J7">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.0435329494206</v>
+        <v>51.07351833333333</v>
       </c>
       <c r="N7">
-        <v>46.0435329494206</v>
+        <v>153.220555</v>
       </c>
       <c r="O7">
-        <v>0.9042398333862478</v>
+        <v>0.8998381095974417</v>
       </c>
       <c r="P7">
-        <v>0.9042398333862478</v>
+        <v>0.8998381095974416</v>
       </c>
       <c r="Q7">
-        <v>52.43856702000302</v>
+        <v>62.69817457161611</v>
       </c>
       <c r="R7">
-        <v>52.43856702000302</v>
+        <v>564.283571144545</v>
       </c>
       <c r="S7">
-        <v>0.01177168018747713</v>
+        <v>0.009956539102687054</v>
       </c>
       <c r="T7">
-        <v>0.01177168018747713</v>
+        <v>0.009956539102687052</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H8">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I8">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J8">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.18969889110557</v>
+        <v>1.356035</v>
       </c>
       <c r="N8">
-        <v>1.18969889110557</v>
+        <v>4.068105</v>
       </c>
       <c r="O8">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="P8">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="Q8">
-        <v>40.8408501912732</v>
+        <v>46.596617084</v>
       </c>
       <c r="R8">
-        <v>40.8408501912732</v>
+        <v>419.369553756</v>
       </c>
       <c r="S8">
-        <v>0.009168164851891191</v>
+        <v>0.007399594058673136</v>
       </c>
       <c r="T8">
-        <v>0.009168164851891191</v>
+        <v>0.007399594058673133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H9">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I9">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J9">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.1868614501214</v>
+        <v>2.189198666666667</v>
       </c>
       <c r="N9">
-        <v>2.1868614501214</v>
+        <v>6.567596</v>
       </c>
       <c r="O9">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="P9">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="Q9">
-        <v>75.07217291804068</v>
+        <v>75.22612026346667</v>
       </c>
       <c r="R9">
-        <v>75.07217291804068</v>
+        <v>677.0350823712</v>
       </c>
       <c r="S9">
-        <v>0.01685258886332752</v>
+        <v>0.01194599066183529</v>
       </c>
       <c r="T9">
-        <v>0.01685258886332752</v>
+        <v>0.01194599066183529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H10">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I10">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J10">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.529331852907259</v>
+        <v>1.022878333333333</v>
       </c>
       <c r="N10">
-        <v>0.529331852907259</v>
+        <v>3.068635</v>
       </c>
       <c r="O10">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="P10">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="Q10">
-        <v>18.17128944784071</v>
+        <v>35.14855444133333</v>
       </c>
       <c r="R10">
-        <v>18.17128944784071</v>
+        <v>316.336989972</v>
       </c>
       <c r="S10">
-        <v>0.004079184846764837</v>
+        <v>0.00558162911582578</v>
       </c>
       <c r="T10">
-        <v>0.004079184846764837</v>
+        <v>0.005581629115825779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H11">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I11">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J11">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.405604611957196</v>
+        <v>0.492087</v>
       </c>
       <c r="N11">
-        <v>0.405604611957196</v>
+        <v>1.476261</v>
       </c>
       <c r="O11">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="P11">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="Q11">
-        <v>13.92389058918892</v>
+        <v>16.9092903288</v>
       </c>
       <c r="R11">
-        <v>13.92389058918892</v>
+        <v>152.1836129592</v>
       </c>
       <c r="S11">
-        <v>0.003125706827931261</v>
+        <v>0.002685213907863946</v>
       </c>
       <c r="T11">
-        <v>0.003125706827931261</v>
+        <v>0.002685213907863946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H12">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I12">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J12">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.564572820492847</v>
+        <v>0.624846</v>
       </c>
       <c r="N12">
-        <v>0.564572820492847</v>
+        <v>1.874538</v>
       </c>
       <c r="O12">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="P12">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="Q12">
-        <v>19.38106705503089</v>
+        <v>21.4712081904</v>
       </c>
       <c r="R12">
-        <v>19.38106705503089</v>
+        <v>193.2408737136</v>
       </c>
       <c r="S12">
-        <v>0.004350761968320844</v>
+        <v>0.003409651483321355</v>
       </c>
       <c r="T12">
-        <v>0.004350761968320844</v>
+        <v>0.003409651483321354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H13">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I13">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J13">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.0435329494206</v>
+        <v>51.07351833333333</v>
       </c>
       <c r="N13">
-        <v>46.0435329494206</v>
+        <v>153.220555</v>
       </c>
       <c r="O13">
-        <v>0.9042398333862478</v>
+        <v>0.8998381095974417</v>
       </c>
       <c r="P13">
-        <v>0.9042398333862478</v>
+        <v>0.8998381095974416</v>
       </c>
       <c r="Q13">
-        <v>1580.615940321468</v>
+        <v>1755.008666377333</v>
       </c>
       <c r="R13">
-        <v>1580.615940321468</v>
+        <v>15795.077997396</v>
       </c>
       <c r="S13">
-        <v>0.3548248246676</v>
+        <v>0.2786973070863707</v>
       </c>
       <c r="T13">
-        <v>0.3548248246676</v>
+        <v>0.2786973070863706</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H14">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I14">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J14">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.18969889110557</v>
+        <v>1.356035</v>
       </c>
       <c r="N14">
-        <v>1.18969889110557</v>
+        <v>4.068105</v>
       </c>
       <c r="O14">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="P14">
-        <v>0.02336426112772133</v>
+        <v>0.02389128477470859</v>
       </c>
       <c r="Q14">
-        <v>61.88352423607652</v>
+        <v>0.05573936666333335</v>
       </c>
       <c r="R14">
-        <v>61.88352423607652</v>
+        <v>0.50165429997</v>
       </c>
       <c r="S14">
-        <v>0.01389193293369748</v>
+        <v>8.851472750751005E-06</v>
       </c>
       <c r="T14">
-        <v>0.01389193293369748</v>
+        <v>8.851472750751003E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H15">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I15">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J15">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.1868614501214</v>
+        <v>2.189198666666667</v>
       </c>
       <c r="N15">
-        <v>2.1868614501214</v>
+        <v>6.567596</v>
       </c>
       <c r="O15">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="P15">
-        <v>0.04294733932491309</v>
+        <v>0.03857036785462446</v>
       </c>
       <c r="Q15">
-        <v>113.7520548781619</v>
+        <v>0.08998628146044445</v>
       </c>
       <c r="R15">
-        <v>113.7520548781619</v>
+        <v>0.8098765331440001</v>
       </c>
       <c r="S15">
-        <v>0.02553564841280424</v>
+        <v>1.428992049908773E-05</v>
       </c>
       <c r="T15">
-        <v>0.02553564841280424</v>
+        <v>1.428992049908773E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H16">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I16">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J16">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.529331852907259</v>
+        <v>1.022878333333333</v>
       </c>
       <c r="N16">
-        <v>0.529331852907259</v>
+        <v>3.068635</v>
       </c>
       <c r="O16">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="P16">
-        <v>0.01039544352525444</v>
+        <v>0.01802156843410824</v>
       </c>
       <c r="Q16">
-        <v>27.53379093921247</v>
+        <v>0.04204507293222223</v>
       </c>
       <c r="R16">
-        <v>27.53379093921247</v>
+        <v>0.37840565639</v>
       </c>
       <c r="S16">
-        <v>0.006180927506307093</v>
+        <v>6.676803839748682E-06</v>
       </c>
       <c r="T16">
-        <v>0.006180927506307093</v>
+        <v>6.676803839748681E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H17">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I17">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J17">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.405604611957196</v>
+        <v>0.492087</v>
       </c>
       <c r="N17">
-        <v>0.405604611957196</v>
+        <v>1.476261</v>
       </c>
       <c r="O17">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="P17">
-        <v>0.007965588720999391</v>
+        <v>0.00866982832370258</v>
       </c>
       <c r="Q17">
-        <v>21.09797951563379</v>
+        <v>0.020227072106</v>
       </c>
       <c r="R17">
-        <v>21.09797951563379</v>
+        <v>0.182043648954</v>
       </c>
       <c r="S17">
-        <v>0.004736183339358733</v>
+        <v>3.212081304316489E-06</v>
       </c>
       <c r="T17">
-        <v>0.004736183339358733</v>
+        <v>3.212081304316488E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H18">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I18">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J18">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.564572820492847</v>
+        <v>0.624846</v>
       </c>
       <c r="N18">
-        <v>0.564572820492847</v>
+        <v>1.874538</v>
       </c>
       <c r="O18">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="P18">
-        <v>0.01108753391486393</v>
+        <v>0.01100884101541447</v>
       </c>
       <c r="Q18">
-        <v>29.36688945513938</v>
+        <v>0.025684086548</v>
       </c>
       <c r="R18">
-        <v>29.36688945513938</v>
+        <v>0.231156778932</v>
       </c>
       <c r="S18">
-        <v>0.006592430922741018</v>
+        <v>4.078661201529284E-06</v>
       </c>
       <c r="T18">
-        <v>0.006592430922741018</v>
+        <v>4.078661201529284E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.04110466666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.123314</v>
+      </c>
+      <c r="I19">
+        <v>0.0003704896088351518</v>
+      </c>
+      <c r="J19">
+        <v>0.0003704896088351518</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>51.07351833333333</v>
+      </c>
+      <c r="N19">
+        <v>153.220555</v>
+      </c>
+      <c r="O19">
+        <v>0.8998381095974417</v>
+      </c>
+      <c r="P19">
+        <v>0.8998381095974416</v>
+      </c>
+      <c r="Q19">
+        <v>2.099359946585556</v>
+      </c>
+      <c r="R19">
+        <v>18.89423951927</v>
+      </c>
+      <c r="S19">
+        <v>0.0003333806692397186</v>
+      </c>
+      <c r="T19">
+        <v>0.0003333806692397186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.077003</v>
+      </c>
+      <c r="H20">
+        <v>0.231009</v>
+      </c>
+      <c r="I20">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J20">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.356035</v>
+      </c>
+      <c r="N20">
+        <v>4.068105</v>
+      </c>
+      <c r="O20">
+        <v>0.02389128477470859</v>
+      </c>
+      <c r="P20">
+        <v>0.02389128477470859</v>
+      </c>
+      <c r="Q20">
+        <v>0.104418763105</v>
+      </c>
+      <c r="R20">
+        <v>0.939768867945</v>
+      </c>
+      <c r="S20">
+        <v>1.658181446290153E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.658181446290152E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.077003</v>
+      </c>
+      <c r="H21">
+        <v>0.231009</v>
+      </c>
+      <c r="I21">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J21">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.189198666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.567596</v>
+      </c>
+      <c r="O21">
+        <v>0.03857036785462446</v>
+      </c>
+      <c r="P21">
+        <v>0.03857036785462446</v>
+      </c>
+      <c r="Q21">
+        <v>0.1685748649293333</v>
+      </c>
+      <c r="R21">
+        <v>1.517173784364</v>
+      </c>
+      <c r="S21">
+        <v>2.676987401733589E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.676987401733588E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.077003</v>
+      </c>
+      <c r="H22">
+        <v>0.231009</v>
+      </c>
+      <c r="I22">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J22">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.022878333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.068635</v>
+      </c>
+      <c r="O22">
+        <v>0.01802156843410824</v>
+      </c>
+      <c r="P22">
+        <v>0.01802156843410824</v>
+      </c>
+      <c r="Q22">
+        <v>0.07876470030166667</v>
+      </c>
+      <c r="R22">
+        <v>0.708882302715</v>
+      </c>
+      <c r="S22">
+        <v>1.250792106505752E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.250792106505752E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.077003</v>
+      </c>
+      <c r="H23">
+        <v>0.231009</v>
+      </c>
+      <c r="I23">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J23">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.492087</v>
+      </c>
+      <c r="N23">
+        <v>1.476261</v>
+      </c>
+      <c r="O23">
+        <v>0.00866982832370258</v>
+      </c>
+      <c r="P23">
+        <v>0.00866982832370258</v>
+      </c>
+      <c r="Q23">
+        <v>0.037892175261</v>
+      </c>
+      <c r="R23">
+        <v>0.341029577349</v>
+      </c>
+      <c r="S23">
+        <v>6.01731912052847E-06</v>
+      </c>
+      <c r="T23">
+        <v>6.017319120528469E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.077003</v>
+      </c>
+      <c r="H24">
+        <v>0.231009</v>
+      </c>
+      <c r="I24">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J24">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.624846</v>
+      </c>
+      <c r="N24">
+        <v>1.874538</v>
+      </c>
+      <c r="O24">
+        <v>0.01100884101541447</v>
+      </c>
+      <c r="P24">
+        <v>0.01100884101541447</v>
+      </c>
+      <c r="Q24">
+        <v>0.048115016538</v>
+      </c>
+      <c r="R24">
+        <v>0.433035148842</v>
+      </c>
+      <c r="S24">
+        <v>7.64071756251584E-06</v>
+      </c>
+      <c r="T24">
+        <v>7.64071756251584E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.077003</v>
+      </c>
+      <c r="H25">
+        <v>0.231009</v>
+      </c>
+      <c r="I25">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J25">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>51.07351833333333</v>
+      </c>
+      <c r="N25">
+        <v>153.220555</v>
+      </c>
+      <c r="O25">
+        <v>0.8998381095974417</v>
+      </c>
+      <c r="P25">
+        <v>0.8998381095974416</v>
+      </c>
+      <c r="Q25">
+        <v>3.932814132221667</v>
+      </c>
+      <c r="R25">
+        <v>35.39532718999499</v>
+      </c>
+      <c r="S25">
+        <v>0.0006245352110903722</v>
+      </c>
+      <c r="T25">
+        <v>0.0006245352110903721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H26">
+        <v>225.716302</v>
+      </c>
+      <c r="I26">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J26">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.356035</v>
+      </c>
+      <c r="N26">
+        <v>4.068105</v>
+      </c>
+      <c r="O26">
+        <v>0.02389128477470859</v>
+      </c>
+      <c r="P26">
+        <v>0.02389128477470859</v>
+      </c>
+      <c r="Q26">
+        <v>102.0264018608567</v>
+      </c>
+      <c r="R26">
+        <v>918.2376167477099</v>
+      </c>
+      <c r="S26">
+        <v>0.01620190486524875</v>
+      </c>
+      <c r="T26">
+        <v>0.01620190486524875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H27">
+        <v>225.716302</v>
+      </c>
+      <c r="I27">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J27">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.189198666666667</v>
+      </c>
+      <c r="N27">
+        <v>6.567596</v>
+      </c>
+      <c r="O27">
+        <v>0.03857036785462446</v>
+      </c>
+      <c r="P27">
+        <v>0.03857036785462446</v>
+      </c>
+      <c r="Q27">
+        <v>164.7126091277769</v>
+      </c>
+      <c r="R27">
+        <v>1482.413482149992</v>
+      </c>
+      <c r="S27">
+        <v>0.02615654354678363</v>
+      </c>
+      <c r="T27">
+        <v>0.02615654354678363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>52.0161233222375</v>
-      </c>
-      <c r="H19">
-        <v>52.0161233222375</v>
-      </c>
-      <c r="I19">
-        <v>0.5945804516460792</v>
-      </c>
-      <c r="J19">
-        <v>0.5945804516460792</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>46.0435329494206</v>
-      </c>
-      <c r="N19">
-        <v>46.0435329494206</v>
-      </c>
-      <c r="O19">
-        <v>0.9042398333862478</v>
-      </c>
-      <c r="P19">
-        <v>0.9042398333862478</v>
-      </c>
-      <c r="Q19">
-        <v>2395.006088088568</v>
-      </c>
-      <c r="R19">
-        <v>2395.006088088568</v>
-      </c>
-      <c r="S19">
-        <v>0.5376433285311706</v>
-      </c>
-      <c r="T19">
-        <v>0.5376433285311706</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H28">
+        <v>225.716302</v>
+      </c>
+      <c r="I28">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J28">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.022878333333333</v>
+      </c>
+      <c r="N28">
+        <v>3.068635</v>
+      </c>
+      <c r="O28">
+        <v>0.01802156843410824</v>
+      </c>
+      <c r="P28">
+        <v>0.01802156843410824</v>
+      </c>
+      <c r="Q28">
+        <v>76.96010493197444</v>
+      </c>
+      <c r="R28">
+        <v>692.64094438777</v>
+      </c>
+      <c r="S28">
+        <v>0.01222134933492931</v>
+      </c>
+      <c r="T28">
+        <v>0.01222134933492931</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H29">
+        <v>225.716302</v>
+      </c>
+      <c r="I29">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J29">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.492087</v>
+      </c>
+      <c r="N29">
+        <v>1.476261</v>
+      </c>
+      <c r="O29">
+        <v>0.00866982832370258</v>
+      </c>
+      <c r="P29">
+        <v>0.00866982832370258</v>
+      </c>
+      <c r="Q29">
+        <v>37.024019300758</v>
+      </c>
+      <c r="R29">
+        <v>333.216173706822</v>
+      </c>
+      <c r="S29">
+        <v>0.005879454998894322</v>
+      </c>
+      <c r="T29">
+        <v>0.005879454998894322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H30">
+        <v>225.716302</v>
+      </c>
+      <c r="I30">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J30">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.624846</v>
+      </c>
+      <c r="N30">
+        <v>1.874538</v>
+      </c>
+      <c r="O30">
+        <v>0.01100884101541447</v>
+      </c>
+      <c r="P30">
+        <v>0.01100884101541447</v>
+      </c>
+      <c r="Q30">
+        <v>47.012642813164</v>
+      </c>
+      <c r="R30">
+        <v>423.113785318476</v>
+      </c>
+      <c r="S30">
+        <v>0.007465659402177097</v>
+      </c>
+      <c r="T30">
+        <v>0.007465659402177097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H31">
+        <v>225.716302</v>
+      </c>
+      <c r="I31">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J31">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>51.07351833333333</v>
+      </c>
+      <c r="N31">
+        <v>153.220555</v>
+      </c>
+      <c r="O31">
+        <v>0.8998381095974417</v>
+      </c>
+      <c r="P31">
+        <v>0.8998381095974416</v>
+      </c>
+      <c r="Q31">
+        <v>3842.708562776401</v>
+      </c>
+      <c r="R31">
+        <v>34584.3770649876</v>
+      </c>
+      <c r="S31">
+        <v>0.6102263475280538</v>
+      </c>
+      <c r="T31">
+        <v>0.6102263475280538</v>
       </c>
     </row>
   </sheetData>
